--- a/AI_genegator/site_collections_text_try.xlsx
+++ b/AI_genegator/site_collections_text_try.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F37E31-2B2D-4536-95D0-4FD15C0B1399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A4E36C-9B1E-4407-A388-A11FCC800BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>ID раздела</t>
   </si>
@@ -23,37 +28,107 @@
     <t>Название раздела</t>
   </si>
   <si>
-    <t>Название раздела</t>
+    <t>53971</t>
+  </si>
+  <si>
+    <t>Emtile</t>
+  </si>
+  <si>
+    <t>Avila</t>
+  </si>
+  <si>
+    <t>&lt;section&gt;
+  &lt;h2&gt;Коллекция плитки Avila от Emtile – искусство в каждой детали&lt;/h2&gt;
+  &lt;p&gt;Коллекция Avila – это гармония современного дизайна и утонченного ремесла, воплощенная в каждой плитке. Она создана для тех, кто ценит эстетику, функциональность и долговечность. Каждая деталь этой коллекции становится акцентом, который наполняет пространство атмосферой элегантности и уюта.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h3&gt;Стиль и цветовая палитра&lt;/h3&gt;
+  &lt;p&gt;Мягкая природная гамма коллекции Avila вдохновлена оттенками камня и земли. Спокойные бежевые, серые и кремовые тона создают впечатление натуральной текстуры, идеально подходящей для создания изысканной, но ненавязчивой атмосферы. Это плитка, которая легко впишется как в классический, так и современный интерьер.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h3&gt;Поверхность и формат&lt;/h3&gt;
+  &lt;p&gt;Матовая поверхность плитки Avila радует тактильной теплотой и визуальной глубиной. Её текстура напоминает натуральный камень, что придает пространству неподвластный времени шарм. Разнообразие размеров позволяет легко адаптировать плитку к любому проекту, будь то уютная ванная комната или просторная гостиная.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h3&gt;Преимущества коллекции&lt;/h3&gt;
+  &lt;p&gt;Avila – это не просто плитка, это универсальный инструмент для создания интерьера вашей мечты. Она отличается повышенной износостойкостью, что делает её идеальной для помещений с высокой проходимостью. Простота в уходе и устойчивость к влаге обеспечивают долговечность и практичность.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h4&gt;Художественное исполнение&lt;/h4&gt;
+  &lt;p&gt;Каждая плитка Avila – это результат мастерского подхода к дизайну. Её текстурированная поверхность создаёт игру света и тени, добавляя глубину и объём пространству. Это настоящий шедевр, который раскрывает свой характер в каждом интерьере.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;h3&gt;Интересный факт&lt;/h3&gt;
+  &lt;p&gt;Название «Avila» отсылает к испанскому городу, знаменитому своими мощными каменными стенами и исторической архитектурой. Коллекция словно наследует дух прочности и величия этого места, воплощая его в изысканном облике.&lt;/p&gt;
+&lt;/section&gt;
+&lt;section&gt;
+  &lt;p&gt;Плитка Avila – это выбор тех, кто стремится к уникальному сочетанию эстетики, практичности и долговечности. Создайте пространство, которое вдохновляет и радует каждый день!&lt;/p&gt;
+&lt;/section&gt;</t>
+  </si>
+  <si>
+    <t>53972</t>
+  </si>
+  <si>
+    <t>ColorBreeze</t>
+  </si>
+  <si>
+    <t>&lt;section&gt;  
+    &lt;h1&gt;Коллекция плитки Colorbreeze от Emtile: вдохновение в каждой детали&lt;/h1&gt;  
+    &lt;p&gt;Погрузитесь в мир утончённой эстетики с коллекцией плитки &lt;strong&gt;Colorbreeze&lt;/strong&gt; от Emtile. Эта линейка создана для тех, кто ценит гармонию современного дизайна и природной элегантности. Каждая плитка здесь — это не просто строительный материал, а художественное произведение, способное преобразить любое пространство.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+    &lt;h2&gt;Изысканный стиль и богатство оттенков&lt;/h2&gt;  
+    &lt;p&gt;Коллекция &lt;strong&gt;Colorbreeze&lt;/strong&gt; поражает своей палитрой, которая варьируется от нежных пастельных тонов до насыщенных и глубоких цветов. Эти плитки станут идеальным фоном как для минималистичного интерьера, так и для смелых дизайнерских экспериментов. Невероятная цветовая глубина достигается благодаря инновационным технологиям окрашивания, что делает каждую плитку уникальной и выразительной.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+    &lt;h2&gt;Разнообразие форм и текстур&lt;/h2&gt;  
+    &lt;p&gt;В коллекции представлены плитки классической прямоугольной формы и более экспериментальные варианты, которые подойдут для создания сложных мозаичных композиций. Поверхность плиток доступна в матовом и глянцевом исполнении, что позволяет играть со светом и текстурой в вашем интерьере. Благодаря такому разнообразию, вы сможете создать пространство, которое будет выглядеть дорого и современно.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+    &lt;h2&gt;Идеальный размер для любого интерьера&lt;/h2&gt;  
+    &lt;p&gt;Плитки &lt;strong&gt;Colorbreeze&lt;/strong&gt; выпускаются в ряде популярных размеров, что делает их универсальным выбором как для небольших помещений, так и для обширных пространств. Точные геометрические линии обеспечивают лёгкость укладки и безупречный конечный результат. Вне зависимости от масштаба вашего проекта, эта коллекция станет вашим надёжным помощником в воплощении самых смелых идей.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+    &lt;h2&gt;Долговечность и удобство в уходе&lt;/h2&gt;  
+    &lt;p&gt;Плитка из коллекции &lt;strong&gt;Colorbreeze&lt;/strong&gt; отличается высокой износостойкостью и устойчивостью к влаге. Это идеальный выбор для кухонь, ванных комнат и даже зон с высокой проходимостью. Простота в уходе позволяет сохранить первоначальный вид плитки на долгие годы, что делает её не только эстетически привлекательной, но и практичной.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+    &lt;h2&gt;Искусство, которое вдохновляет&lt;/h2&gt;  
+    &lt;p&gt;С коллекцией &lt;strong&gt;Colorbreeze&lt;/strong&gt; от Emtile вы не просто украшаете свой дом — вы создаёте атмосферу уюта и стиля. Это выбор для тех, кто считает, что интерьер должен быть отражением индивидуальности. Плитка из этой линейки станет не просто фоном, а полноценным участником вашей дизайнерской истории.&lt;/p&gt;  
+&lt;/section&gt;  
+&lt;section&gt;  
+    &lt;p&gt;Позвольте своему дому заиграть новыми красками с коллекцией &lt;strong&gt;Colorbreeze&lt;/strong&gt; от Emtile. Это не просто плитка, это инструмент для создания идеального пространства, которое вдохновляет!&lt;/p&gt;  
+&lt;/section&gt;</t>
+  </si>
+  <si>
+    <t>59931</t>
+  </si>
+  <si>
+    <t>Березакерамика</t>
+  </si>
+  <si>
+    <t>Argos</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Коллекция плитки Argos от Березакерамика — гармония стиля и изысканности&lt;/h2&gt;
+&lt;p&gt;Вдохновленная естественной красотой камня, коллекция &lt;strong&gt;Argos&lt;/strong&gt; от фабрики Березакерамика — это воплощение утонченного вкуса и современного подхода к оформлению интерьеров. Каждая плитка в этой коллекции создана с любовью к деталям, чтобы подарить вашему пространству атмосферу изысканности и уюта.&lt;/p&gt;
+&lt;h3&gt;Идеальное сочетание стиля и практичности&lt;/h3&gt;
+&lt;p&gt;Коллекция &lt;strong&gt;Argos&lt;/strong&gt; радует разнообразием форматов и фактур. Гладкая матовая поверхность с легкими переливами создает эффект натурального камня, а искусно проработанная текстура добавляет глубины. Теплые, нейтральные оттенки — от мягкого песочного до благородного серого — идеально впишутся в любой интерьер, будь то минималистичная ванная комната, уютная кухня или просторная гостиная.&lt;/p&gt;
+&lt;h3&gt;Художественное исполнение, которое вдохновляет&lt;/h3&gt;
+&lt;p&gt;Эта коллекция — не просто плитка, это настоящее произведение искусства! Изящные узоры и тонкие прожилки, имитирующие природные структуры, делают каждую плитку уникальной. Благодаря инновационным технологиям фабрика Березакерамика добилась эффекта максимальной реалистичности, создавая ощущение, будто поверхность была выточена самой природой.&lt;/p&gt;
+&lt;h3&gt;Ключевые преимущества коллекции&lt;/h3&gt;
+&lt;ul&gt;
+  &lt;li&gt;Широкий выбор размеров, подходящих для любых пространств.&lt;/li&gt;
+  &lt;li&gt;Износостойкая поверхность, идеально подходящая для помещений с высокой проходимостью.&lt;/li&gt;
+  &lt;li&gt;Влагостойкость и простота ухода, что делает плитку долговечным решением для ванной и кухни.&lt;/li&gt;
+  &lt;li&gt;Универсальный дизайн, который гармонично сочетается с различными стилями интерьера.&lt;/li&gt;
+&lt;/ul&gt;
+&lt;p&gt;Коллекция &lt;strong&gt;Argos&lt;/strong&gt; — это ваш ключ к созданию пространства, которое будет вдохновлять каждый день. Она идеально подойдет как для смелых дизайнерских решений, так и для классических интерьеров, где важны элегантность и сбалансированность.&lt;/p&gt;
+&lt;h3&gt;Создайте интерьер, который расскажет вашу историю&lt;/h3&gt;
+&lt;p&gt;С плиткой Argos от Березакерамика ваш дом станет настоящим отражением вашего вкуса. Позвольте этой коллекции подчеркнуть уникальность вашего пространства, добавив в него нотку природной гармонии и современного шика!&lt;/p&gt;</t>
   </si>
   <si>
     <t>Описание</t>
-  </si>
-  <si>
-    <t>53971</t>
-  </si>
-  <si>
-    <t>Emtile</t>
-  </si>
-  <si>
-    <t>Avila</t>
-  </si>
-  <si>
-    <t>53972</t>
-  </si>
-  <si>
-    <t>Emtile</t>
-  </si>
-  <si>
-    <t>ColorBreeze</t>
-  </si>
-  <si>
-    <t>53973</t>
-  </si>
-  <si>
-    <t>Emtile</t>
-  </si>
-  <si>
-    <t>Milagro</t>
   </si>
 </sst>
 </file>
@@ -112,16 +187,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -466,13 +545,13 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD299"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="96.7109375" customWidth="1"/>
+    <col min="1" max="3" width="22.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="95.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -483,52 +562,56 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4" ht="242.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="4" spans="1:4" ht="275.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:D4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/AI_genegator/site_collections_text_try.xlsx
+++ b/AI_genegator/site_collections_text_try.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\AI_genegator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis2\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A4E36C-9B1E-4407-A388-A11FCC800BD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DADA47-5C46-47DE-AF88-40AA37CD9815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
